--- a/biology/Histoire de la zoologie et de la botanique/Émile_Yung/Émile_Yung.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Yung/Émile_Yung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Yung</t>
+          <t>Émile_Yung</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Yung (6 juin 1854 - 2 février 1918) est un biologiste suisse.
-Il fut le collaborateur de Carl Vogt à l'Université de Genève à partir de 1876. Il le remplaça à sa mort en 1895[1].
+Il fut le collaborateur de Carl Vogt à l'Université de Genève à partir de 1876. Il le remplaça à sa mort en 1895.
 Il fit plusieurs séjours de recherche à la station de biologie marine de Roscoff, où il rencontra Yves Delage.
-Il a mené différentes expériences sur le développement des animaux. Il est connu pour ses travaux sur l'influence du milieu sur le développement des têtards[2].
-Son portrait peint par Ferdinand Hodler en 1890 se trouve au Musée Jenisch, à Vevey[3]. Une rue de Genève a reçu son nom (à Plainpalais, au nord du site principal des hôpitaux universitaires de Genève).
+Il a mené différentes expériences sur le développement des animaux. Il est connu pour ses travaux sur l'influence du milieu sur le développement des têtards.
+Son portrait peint par Ferdinand Hodler en 1890 se trouve au Musée Jenisch, à Vevey. Une rue de Genève a reçu son nom (à Plainpalais, au nord du site principal des hôpitaux universitaires de Genève).
 </t>
         </is>
       </c>
